--- a/biology/Botanique/Aramon_x_rupestris_Ganzin_1/Aramon_x_rupestris_Ganzin_1.xlsx
+++ b/biology/Botanique/Aramon_x_rupestris_Ganzin_1/Aramon_x_rupestris_Ganzin_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aramon x rupestris ganzin 1 est une variété de vigne créée pour servir de porte-greffe.
 </t>
@@ -511,10 +523,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est issu d'une hybridation interspécifique entre Vitix vinifera variété aramon et Vitis rupestris variété ganzin n°1. Fait par Victor Ganzin en 1879, il a été créé au moment de la reconstitution du vignoble face au désastre du phylloxera.
-Il a été rapidement planté mais, une résistance insuffisante au phylloxera ayant été constatée en 1903, son usage a alors été abandonné. Dans les années 1960, en Californie, les vignerons ont subitement trouvé des avantages à l'utiliser. En dépit des avertissements du professeur Boubals, éminent professeur français de viticulture, les surfaces greffées sur ARG 1 ont considérablement augmenté. La crise prévue s'est produite à partir de 1985 et il a fallu replanter de grandes surfaces de vigne[1].
+Il a été rapidement planté mais, une résistance insuffisante au phylloxera ayant été constatée en 1903, son usage a alors été abandonné. Dans les années 1960, en Californie, les vignerons ont subitement trouvé des avantages à l'utiliser. En dépit des avertissements du professeur Boubals, éminent professeur français de viticulture, les surfaces greffées sur ARG 1 ont considérablement augmenté. La crise prévue s'est produite à partir de 1985 et il a fallu replanter de grandes surfaces de vigne.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bourgeonnement est duveteux et les jeunes feuilles rouge vif. 
 Les feuilles adultes sont à trois lobes avec un sinus pétiolaire grand ouvert. 
@@ -578,13 +594,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adaptation au terroir
-L'ARG 1 est bien adapté aux sols profonds et frais. Il présente une résistance moyenne au calcaire. 
+          <t>Adaptation au terroir</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ARG 1 est bien adapté aux sols profonds et frais. Il présente une résistance moyenne au calcaire. 
 Son gros défaut est une résistance insuffisante au phylloxera.
-Adaptation au greffage
-Il se bouture et se greffe facilement et montre un très bon enracinement.
-En croisement
-En dépit de sa résistance trop faible au phylloxera, Pierre Castel lui a reconnu des qualités. Il l'a hybridé avec Vitis riparia pour accroitre sa résistance à l'insecte radicole ; il a ainsi donné le Castel 4010.
 </t>
         </is>
       </c>
@@ -610,10 +627,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Adaptation au greffage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se bouture et se greffe facilement et montre un très bon enracinement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aramon_x_rupestris_Ganzin_1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aramon_x_rupestris_Ganzin_1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En croisement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En dépit de sa résistance trop faible au phylloxera, Pierre Castel lui a reconnu des qualités. Il l'a hybridé avec Vitis riparia pour accroitre sa résistance à l'insecte radicole ; il a ainsi donné le Castel 4010.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aramon_x_rupestris_Ganzin_1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aramon_x_rupestris_Ganzin_1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
